--- a/src/cab/perm/falcon.fm.settlement.xlsx
+++ b/src/cab/perm/falcon.fm.settlement.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCF34C-C048-3145-B4DD-735F8233E10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56560" yWindow="-5220" windowWidth="50720" windowHeight="27100"/>
+    <workbookView xWindow="56560" yWindow="-5220" windowWidth="50720" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="DATA-PERM" state="visible" r:id="rId4"/>
+    <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,39 +41,21 @@
     <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
   </si>
   <si>
-    <t>02babc5b-41c0-4dce-9716-d42b1ba7bb63</t>
-  </si>
-  <si>
     <t>结算单读取</t>
   </si>
   <si>
-    <t>dcc5a18d-95ad-4172-b2b3-6fd0749f305b</t>
-  </si>
-  <si>
     <t>结算单添加</t>
   </si>
   <si>
-    <t>564afdff-aed5-4d91-b65a-030ff876bf46</t>
-  </si>
-  <si>
     <t>结算单更新</t>
   </si>
   <si>
-    <t>9b84f53e-1ff0-4254-9b28-18597aca1d9a</t>
-  </si>
-  <si>
     <t>结算单删除</t>
   </si>
   <si>
-    <t>5f736394-e55c-4745-9b04-7483853fc4a0</t>
-  </si>
-  <si>
     <t>结算单列变更</t>
   </si>
   <si>
-    <t>df38151c-4a42-4d5e-8ac2-74761df12603</t>
-  </si>
-  <si>
     <t>结算单导入/导出</t>
   </si>
   <si>
@@ -146,50 +129,75 @@
   </si>
   <si>
     <t>criteria</t>
+  </si>
+  <si>
+    <t>33a80a2a-c2c1-408b-8eaf-414be3f7d830</t>
+  </si>
+  <si>
+    <t>d000ea29-ef0d-401a-987f-cbd408b93c82</t>
+  </si>
+  <si>
+    <t>d63ab198-4488-41e0-bff9-a2bb02cac644</t>
+  </si>
+  <si>
+    <t>e136319d-e055-4dc4-86bc-ba1aafcf8018</t>
+  </si>
+  <si>
+    <t>93554584-ca2a-498c-8818-ed55a58bb535</t>
+  </si>
+  <si>
+    <t>ba3ab341-62ff-4168-b85f-baf13fa1cfcf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="等线"/>
     </font>
     <font>
+      <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="等线"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color rgb="FF0070C0"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
-      <name val="等线"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <family val="4"/>
       <scheme val="minor"/>
-      <sz val="16"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -201,7 +209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,13 +221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,17 +318,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,15 +642,15 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
@@ -655,10 +663,11 @@
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -669,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -678,7 +687,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -687,73 +696,73 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -762,106 +771,107 @@
       <c r="G16" s="1"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="G19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="H19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="F20" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="H20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="J20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="K20" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C18:K18"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>